--- a/classification/droptc/neo-bert/freeze/43782163/prediction.xlsx
+++ b/classification/droptc/neo-bert/freeze/43782163/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8083478808403015</v>
+        <v>0.7820804119110107</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5498941540718079</v>
+        <v>0.9148648381233215</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8354421854019165</v>
+        <v>0.9384145736694336</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4836302399635315</v>
+        <v>0.8897982835769653</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4999102652072906</v>
+        <v>0.7219462990760803</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9396283030509949</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7297294139862061</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.7177605032920837</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9565853476524353</v>
+        <v>0.9241032004356384</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9497228860855103</v>
+        <v>0.8362709283828735</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7654677629470825</v>
+        <v>0.7149051427841187</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.716237485408783</v>
+        <v>0.9597147107124329</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5154184103012085</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.7135791182518005</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.9501407146453857</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.9819210171699524</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3939403295516968</v>
+        <v>0.8354656100273132</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.9185923933982849</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8558788299560547</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8760925531387329</v>
+        <v>0.6410266160964966</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4791485667228699</v>
+        <v>0.443448930978775</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6437613368034363</v>
+        <v>0.7519574761390686</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6730481386184692</v>
+        <v>0.895415723323822</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6632767915725708</v>
+        <v>0.6811428070068359</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.3792669475078583</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9688951373100281</v>
+        <v>0.8939008712768555</v>
       </c>
     </row>
     <row r="28">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.4327119886875153</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.663982629776001</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7096468806266785</v>
+        <v>0.8396847248077393</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.8967273235321045</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8493021130561829</v>
+        <v>0.8882238268852234</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9655225872993469</v>
+        <v>0.9251906871795654</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.6851969361305237</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.6187930107116699</v>
       </c>
     </row>
     <row r="36">
@@ -1435,14 +1435,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9610159993171692</v>
+        <v>0.4978615045547485</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4326611757278442</v>
+        <v>0.4624871611595154</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.699696958065033</v>
+        <v>0.4923351407051086</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8247070908546448</v>
+        <v>0.8457213044166565</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9208796620368958</v>
+        <v>0.9519085288047791</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5518379807472229</v>
+        <v>0.9354336857795715</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4980758726596832</v>
+        <v>0.8717607855796814</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7096589803695679</v>
+        <v>0.8185239434242249</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4021060168743134</v>
+        <v>0.7558065056800842</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8682397603988647</v>
+        <v>0.6476060152053833</v>
       </c>
     </row>
     <row r="46">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.828207790851593</v>
+        <v>0.5036229491233826</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7454019784927368</v>
+        <v>0.5268341898918152</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8513959646224976</v>
+        <v>0.7693570256233215</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.5754368305206299</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7641497850418091</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6213806867599487</v>
+        <v>0.7179663777351379</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.929438591003418</v>
+        <v>0.5133441090583801</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7053418755531311</v>
+        <v>0.4614840447902679</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4472375214099884</v>
+        <v>0.3559010922908783</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5125277638435364</v>
+        <v>0.8420900702476501</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6224995851516724</v>
+        <v>0.73195880651474</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7600646615028381</v>
+        <v>0.8588635325431824</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3247043788433075</v>
+        <v>0.8966946601867676</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9243894815444946</v>
+        <v>0.3827219307422638</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.9763211607933044</v>
       </c>
     </row>
     <row r="61">
@@ -2135,14 +2135,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3884379863739014</v>
+        <v>0.3851085305213928</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7778666615486145</v>
+        <v>0.8754112124443054</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9604416489601135</v>
+        <v>0.9279811382293701</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.7393601536750793</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.802747368812561</v>
+        <v>0.5044000744819641</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.6702339649200439</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.7856662273406982</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4785155951976776</v>
+        <v>0.5092876553535461</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7484671473503113</v>
+        <v>0.3219075798988342</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9555691480636597</v>
+        <v>0.6261351704597473</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7574840784072876</v>
+        <v>0.8119702935218811</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8231579065322876</v>
+        <v>0.5827997326850891</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.903229832649231</v>
+        <v>0.3872119784355164</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6439342498779297</v>
+        <v>0.5242534875869751</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9593504071235657</v>
+        <v>0.6294636726379395</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8393717408180237</v>
+        <v>0.9615025520324707</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8364729285240173</v>
+        <v>0.859289288520813</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9831650257110596</v>
+        <v>0.9111466407775879</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8821849822998047</v>
+        <v>0.6531136631965637</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.9323112964630127</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8700818419456482</v>
+        <v>0.7197928428649902</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5911749601364136</v>
+        <v>0.8534074425697327</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3974263072013855</v>
+        <v>0.6830316781997681</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4008449912071228</v>
+        <v>0.456947386264801</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.43935626745224</v>
+        <v>0.7693570256233215</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6513535380363464</v>
+        <v>0.4624871611595154</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7306404113769531</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.696035623550415</v>
+        <v>0.7583677768707275</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.9692329168319702</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.5036929249763489</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9550797939300537</v>
+        <v>0.5144588947296143</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4018666446208954</v>
+        <v>0.9628075361251831</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7182374000549316</v>
+        <v>0.7710364460945129</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.991970419883728</v>
+        <v>0.5420392155647278</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.916209876537323</v>
+        <v>0.8034660220146179</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.621003270149231</v>
+        <v>0.8971564173698425</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7956230044364929</v>
+        <v>0.5001477003097534</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.8537728190422058</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5972179174423218</v>
+        <v>0.7611002326011658</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8995890021324158</v>
+        <v>0.8120250701904297</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5511196255683899</v>
+        <v>0.5792641043663025</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7661871910095215</v>
+        <v>0.8510826826095581</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4133843183517456</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8600553274154663</v>
+        <v>0.9173659682273865</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7499625086784363</v>
+        <v>0.7142762541770935</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8222122192382812</v>
+        <v>0.7105006575584412</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4826361536979675</v>
+        <v>0.9170577526092529</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5055290460586548</v>
+        <v>0.6525814533233643</v>
       </c>
     </row>
     <row r="109">
@@ -3479,14 +3479,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.350078284740448</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6544837355613708</v>
+        <v>0.8764801025390625</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8473323583602905</v>
+        <v>0.5733444094657898</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.91234290599823</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3901916146278381</v>
+        <v>0.7758226990699768</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2825218439102173</v>
+        <v>0.7629469633102417</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.5189974904060364</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8207299113273621</v>
+        <v>0.8886284232139587</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8745982050895691</v>
+        <v>0.9201679229736328</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3753398954868317</v>
+        <v>0.736211359500885</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4739542901515961</v>
+        <v>0.715849757194519</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5567277073860168</v>
+        <v>0.5133441090583801</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7852211594581604</v>
+        <v>0.6317698359489441</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6146852970123291</v>
+        <v>0.3855257630348206</v>
       </c>
     </row>
     <row r="123">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3875,10 +3875,10 @@
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6094714403152466</v>
+        <v>0.4238786697387695</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6698758006095886</v>
+        <v>0.5831194519996643</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5386305451393127</v>
+        <v>0.5288332104682922</v>
       </c>
     </row>
     <row r="126">
@@ -3955,14 +3955,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3542820513248444</v>
+        <v>0.8180080056190491</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.8962628245353699</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.81972736120224</v>
+        <v>0.5540068745613098</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3767922818660736</v>
+        <v>0.3879128098487854</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6221538186073303</v>
+        <v>0.6554084420204163</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.7799614667892456</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9096447825431824</v>
+        <v>0.9249476194381714</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9539830088615417</v>
+        <v>0.54228675365448</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9164506196975708</v>
+        <v>0.551442563533783</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9091532826423645</v>
+        <v>0.8241322636604309</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.9213314652442932</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6464698910713196</v>
+        <v>0.893530547618866</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5037597417831421</v>
+        <v>0.9596107006072998</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9259652495384216</v>
+        <v>0.9638760089874268</v>
       </c>
     </row>
     <row r="140">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4728617966175079</v>
+        <v>0.6675087809562683</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8960246443748474</v>
+        <v>0.8510057330131531</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8273695707321167</v>
+        <v>0.7374292612075806</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4738113284111023</v>
+        <v>0.786176860332489</v>
       </c>
     </row>
     <row r="144">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.961845338344574</v>
+        <v>0.6551051139831543</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.503071129322052</v>
+        <v>0.5420392155647278</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4442293643951416</v>
+        <v>0.7543795108795166</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.802747368812561</v>
+        <v>0.6083504557609558</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5051309466362</v>
+        <v>0.9182361364364624</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8973865509033203</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7579325437545776</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8209801912307739</v>
+        <v>0.8334412574768066</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8687252402305603</v>
+        <v>0.4412921369075775</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8292484283447266</v>
+        <v>0.3851085305213928</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6627504825592041</v>
+        <v>0.7603113651275635</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5080556273460388</v>
+        <v>0.8362709283828735</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4638935923576355</v>
+        <v>0.3231417834758759</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8379144668579102</v>
+        <v>0.7157086730003357</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8674547076225281</v>
+        <v>0.8036195039749146</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5691381692886353</v>
+        <v>0.3559010922908783</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.535086989402771</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6450055837631226</v>
+        <v>0.4071926474571228</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9707126021385193</v>
+        <v>0.9213314652442932</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.762016236782074</v>
+        <v>0.8460382223129272</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9541250467300415</v>
+        <v>0.8381600379943848</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6326504945755005</v>
+        <v>0.5067015290260315</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.756725549697876</v>
+        <v>0.9237464666366577</v>
       </c>
     </row>
     <row r="167">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8571887612342834</v>
+        <v>0.6127461194992065</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.8362709283828735</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9350173473358154</v>
+        <v>0.4719610214233398</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.5538185834884644</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6487089991569519</v>
+        <v>0.827372670173645</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8620923161506653</v>
+        <v>0.7752794623374939</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3102940917015076</v>
+        <v>0.9421371221542358</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8700049519538879</v>
+        <v>0.8411444425582886</v>
       </c>
     </row>
     <row r="175">
@@ -5327,14 +5327,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5933001041412354</v>
+        <v>0.4315110146999359</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5533017516136169</v>
+        <v>0.8185239434242249</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7095666527748108</v>
+        <v>0.91234290599823</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.4959019422531128</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9563272595405579</v>
+        <v>0.5304462909698486</v>
       </c>
     </row>
     <row r="180">
@@ -5467,14 +5467,14 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7031205892562866</v>
+        <v>0.4242937862873077</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.415401965379715</v>
+        <v>0.7956891059875488</v>
       </c>
     </row>
     <row r="182">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9405987858772278</v>
+        <v>0.4892421066761017</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7944394946098328</v>
+        <v>0.8939008712768555</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.7499088644981384</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8612337708473206</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5849875807762146</v>
+        <v>0.6946038007736206</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8031851053237915</v>
+        <v>0.7999531030654907</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8417440056800842</v>
+        <v>0.8185239434242249</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.786124587059021</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4475770890712738</v>
+        <v>0.6399450302124023</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9010603427886963</v>
+        <v>0.7305928468704224</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8887050747871399</v>
+        <v>0.6356751322746277</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9135679006576538</v>
+        <v>0.5706315040588379</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.9742991924285889</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7528043389320374</v>
+        <v>0.9020088911056519</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9200946688652039</v>
+        <v>0.6274304986000061</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.682648241519928</v>
+        <v>0.828569769859314</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9458490014076233</v>
+        <v>0.5159342288970947</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4914770424365997</v>
+        <v>0.7611002326011658</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9088032841682434</v>
+        <v>0.5338541865348816</v>
       </c>
     </row>
     <row r="201">
@@ -6055,14 +6055,14 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3798388838768005</v>
+        <v>0.5133441090583801</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7083860039710999</v>
+        <v>0.984966516494751</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6898691654205322</v>
+        <v>0.9478988647460938</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.9555865526199341</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8908553123474121</v>
+        <v>0.9250240921974182</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4643362760543823</v>
+        <v>0.7693570256233215</v>
       </c>
     </row>
     <row r="207">
@@ -6223,14 +6223,14 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5195571780204773</v>
+        <v>0.4712243676185608</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030292391777039</v>
+        <v>0.895415723323822</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.4284568727016449</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8086134791374207</v>
+        <v>0.7822737693786621</v>
       </c>
     </row>
   </sheetData>
